--- a/Documentación/Psp's/Axel/InterfazConfiguración/DefectsInjected.xlsx
+++ b/Documentación/Psp's/Axel/InterfazConfiguración/DefectsInjected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{746FD9E8-B1BC-47C7-87FE-275668ADD504}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5467962-63CA-42F4-A9FA-2A37B4F3B17A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>/Proyecto/IinterfazConfiguraciÃ³npsp2.1</t>
   </si>
@@ -87,7 +87,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:16 PM el 4/12/2018</t>
+    <t>Reporte generado a las 12:39 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,9 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1080,8 +1077,8 @@
       <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,8 +1094,8 @@
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,8 +1111,8 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,8 +1128,8 @@
       <c r="D12" s="7">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,10 +1143,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,8 +1162,8 @@
       <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
+      <c r="E14" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,8 +1179,8 @@
       <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
+      <c r="E15" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,8 +1196,8 @@
       <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
+      <c r="E16" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -1225,12 +1222,12 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
     </row>
